--- a/PBL.xlsx
+++ b/PBL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Desktop\FALL 2020\CS490 (SE450)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\GitHub\Machine-Learing-Nose-Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD27066C-DA8C-4886-82E8-BB8B9C895A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7A507-CED2-4172-8FB3-7A00314B57FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07F54489-4804-49A9-8FEB-27A3E3B3944A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07F54489-4804-49A9-8FEB-27A3E3B3944A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,12 +53,6 @@
     <t>Find library with 2D faces</t>
   </si>
   <si>
-    <t>Clean found libraries using ML</t>
-  </si>
-  <si>
-    <t>Get XML files</t>
-  </si>
-  <si>
     <t>As a user I want to scan my face to get an 2D image</t>
   </si>
   <si>
@@ -89,7 +83,13 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>As a user I want to use special camera to get 3D image</t>
+    <t>Clean found libraries</t>
+  </si>
+  <si>
+    <t>As a user I want to use special camera to get 3D model of face</t>
+  </si>
+  <si>
+    <t>Get XML files derived from library faces</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,13 +483,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,16 +497,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -514,16 +514,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -531,16 +531,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -565,16 +565,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -582,16 +582,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -599,16 +599,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,16 +616,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,16 +633,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/PBL.xlsx
+++ b/PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\GitHub\Machine-Learing-Nose-Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C7A507-CED2-4172-8FB3-7A00314B57FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F8D529-A729-4A2E-8C33-A09FA902CD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07F54489-4804-49A9-8FEB-27A3E3B3944A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -90,12 +90,18 @@
   </si>
   <si>
     <t>Get XML files derived from library faces</t>
+  </si>
+  <si>
+    <t>Budget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,11 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00F426-ABEC-4D5E-BB66-181DA25598A2}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +652,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PBL.xlsx
+++ b/PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\GitHub\Machine-Learing-Nose-Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F8D529-A729-4A2E-8C33-A09FA902CD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E511497-C85E-4422-8DBC-92DFF35F298C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07F54489-4804-49A9-8FEB-27A3E3B3944A}"/>
   </bookViews>
@@ -56,43 +56,43 @@
     <t>As a user I want to scan my face to get an 2D image</t>
   </si>
   <si>
-    <t>Get facial point into XML file</t>
-  </si>
-  <si>
-    <t>Find facial mathces by using KNN alg</t>
-  </si>
-  <si>
     <t>As a user I want to select preffered faces</t>
   </si>
   <si>
-    <t>Calculate changes from selected face</t>
-  </si>
-  <si>
-    <t>Apply changes on patient face</t>
-  </si>
-  <si>
     <t xml:space="preserve">Must </t>
   </si>
   <si>
-    <t>Should have</t>
-  </si>
-  <si>
     <t xml:space="preserve">To be started </t>
   </si>
   <si>
     <t>TBD</t>
   </si>
   <si>
-    <t>Clean found libraries</t>
-  </si>
-  <si>
     <t>As a user I want to use special camera to get 3D model of face</t>
   </si>
   <si>
-    <t>Get XML files derived from library faces</t>
-  </si>
-  <si>
     <t>Budget</t>
+  </si>
+  <si>
+    <t>Could have</t>
+  </si>
+  <si>
+    <t>Get facial point into XML file using web application</t>
+  </si>
+  <si>
+    <t>Do research on KNN and SVM to see which is better at finding 3-5 noses from the chosen 30-40 faces</t>
+  </si>
+  <si>
+    <t>Use machine learning algorithm (potentially KNN) to trim library down to 30-40 faces that match user specified XML points</t>
+  </si>
+  <si>
+    <t>Match faces from library to XML files (the 30-40 chosen), in order to use machine learning algorithm</t>
+  </si>
+  <si>
+    <t>Apply changes on image of patient face for the use of the surgeon</t>
+  </si>
+  <si>
+    <t>Calculate changes from the user's selected face</t>
   </si>
 </sst>
 </file>
@@ -451,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00F426-ABEC-4D5E-BB66-181DA25598A2}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
@@ -490,173 +490,182 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>A2 +1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" ref="A4:A11" si="0">A3 +1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
         <v>0</v>
       </c>
     </row>

--- a/PBL.xlsx
+++ b/PBL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\GitHub\Machine-Learing-Nose-Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E511497-C85E-4422-8DBC-92DFF35F298C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B167CAA-69DE-466A-850C-D469425622B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07F54489-4804-49A9-8FEB-27A3E3B3944A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Calculate changes from the user's selected face</t>
+  </si>
+  <si>
+    <t>Get ID 1-3 on the python app</t>
+  </si>
+  <si>
+    <t>Get ID 4-6 on the python app</t>
+  </si>
+  <si>
+    <t>Get ID 7-9 on the python app</t>
   </si>
 </sst>
 </file>
@@ -451,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE00F426-ABEC-4D5E-BB66-181DA25598A2}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,8 +501,8 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -510,8 +519,8 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -519,7 +528,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">A3 +1</f>
+        <f t="shared" ref="A4:A14" si="0">A3 +1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -528,8 +537,8 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -546,8 +555,8 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -564,8 +573,8 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -582,8 +591,8 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -600,8 +609,8 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
+      <c r="D8">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -618,8 +627,8 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -636,8 +645,8 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -649,23 +658,77 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
     </row>
